--- a/Test.xlsx
+++ b/Test.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="turbiSheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="test" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
   <si>
     <t>ID</t>
   </si>
@@ -190,24 +191,6 @@
     <t>LDT0505</t>
   </si>
   <si>
-    <t>LDT0506</t>
-  </si>
-  <si>
-    <t>LDT0507</t>
-  </si>
-  <si>
-    <t>LDT0508</t>
-  </si>
-  <si>
-    <t>LDT0509</t>
-  </si>
-  <si>
-    <t>LDT0510</t>
-  </si>
-  <si>
-    <t>LDT0511</t>
-  </si>
-  <si>
     <t>Test@123</t>
   </si>
   <si>
@@ -241,24 +224,6 @@
     <t>Test@3453</t>
   </si>
   <si>
-    <t>Test@3786</t>
-  </si>
-  <si>
-    <t>Test@4119</t>
-  </si>
-  <si>
-    <t>Test@4452</t>
-  </si>
-  <si>
-    <t>Test@4785</t>
-  </si>
-  <si>
-    <t>Test@5118</t>
-  </si>
-  <si>
-    <t>Test@5451</t>
-  </si>
-  <si>
     <t>http://au-server-testzone:8012</t>
   </si>
   <si>
@@ -295,24 +260,6 @@
     <t>http://au-server-testzone:8022</t>
   </si>
   <si>
-    <t>http://au-server-testzone:8023</t>
-  </si>
-  <si>
-    <t>http://au-server-testzone:8024</t>
-  </si>
-  <si>
-    <t>http://au-server-testzone:8025</t>
-  </si>
-  <si>
-    <t>http://au-server-testzone:8026</t>
-  </si>
-  <si>
-    <t>http://au-server-testzone:8027</t>
-  </si>
-  <si>
-    <t>http://au-server-testzone:8028</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -320,13 +267,100 @@
   </si>
   <si>
     <t>Prod</t>
+  </si>
+  <si>
+    <t>TESTID</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>SERVER</t>
+  </si>
+  <si>
+    <t>REQ.ID</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Srilanka</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Req-ABC1</t>
+  </si>
+  <si>
+    <t>Req-ABC2</t>
+  </si>
+  <si>
+    <t>Req-ABC3</t>
+  </si>
+  <si>
+    <t>Req-ABC4</t>
+  </si>
+  <si>
+    <t>Req-ABC5</t>
+  </si>
+  <si>
+    <t>Req-ABC6</t>
+  </si>
+  <si>
+    <t>Req-ABC7</t>
+  </si>
+  <si>
+    <t>Req-ABC8</t>
+  </si>
+  <si>
+    <t>Req-ABC9</t>
+  </si>
+  <si>
+    <t>Req-ABC10</t>
+  </si>
+  <si>
+    <t>Req-ABC11</t>
+  </si>
+  <si>
+    <t>GCP</t>
+  </si>
+  <si>
+    <t>Azure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,16 +376,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -359,14 +407,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -886,10 +951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -917,13 +982,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -931,13 +996,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -945,13 +1010,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -959,13 +1024,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -973,13 +1038,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -987,13 +1052,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1001,13 +1066,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1015,13 +1080,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1029,13 +1094,13 @@
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1043,13 +1108,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1057,96 +1122,12 @@
         <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1159,19 +1140,200 @@
     <hyperlink ref="B8" r:id="rId5" display="Test@123"/>
     <hyperlink ref="B10" r:id="rId6" display="Test@123"/>
     <hyperlink ref="B12" r:id="rId7" display="Test@123"/>
-    <hyperlink ref="B14" r:id="rId8" display="Test@123"/>
-    <hyperlink ref="B16" r:id="rId9" display="Test@123"/>
-    <hyperlink ref="B18" r:id="rId10" display="Test@456"/>
-    <hyperlink ref="B5" r:id="rId11" display="Test@456"/>
-    <hyperlink ref="B7" r:id="rId12" display="Test@456"/>
-    <hyperlink ref="B9" r:id="rId13" display="Test@456"/>
-    <hyperlink ref="B11" r:id="rId14" display="Test@456"/>
-    <hyperlink ref="B13" r:id="rId15" display="Test@456"/>
-    <hyperlink ref="B15" r:id="rId16" display="Test@456"/>
-    <hyperlink ref="B17" r:id="rId17" display="Test@456"/>
-    <hyperlink ref="C2" r:id="rId18"/>
-    <hyperlink ref="C3:C18" r:id="rId19" display="http://au-server-testzone:8012"/>
+    <hyperlink ref="B5" r:id="rId8" display="Test@456"/>
+    <hyperlink ref="B7" r:id="rId9" display="Test@456"/>
+    <hyperlink ref="B9" r:id="rId10" display="Test@456"/>
+    <hyperlink ref="B11" r:id="rId11" display="Test@456"/>
+    <hyperlink ref="C2" r:id="rId12"/>
+    <hyperlink ref="C3:C12" r:id="rId13" display="http://au-server-testzone:8012"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test.xlsx
+++ b/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="turbiSheet1" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>Check the flow of data6</t>
   </si>
   <si>
-    <t>Check the flow of data7</t>
-  </si>
-  <si>
     <t>Check the flow of data8</t>
   </si>
   <si>
@@ -354,6 +351,9 @@
   </si>
   <si>
     <t>Azure</t>
+  </si>
+  <si>
+    <t>just checking</t>
   </si>
 </sst>
 </file>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -809,7 +809,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -831,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -842,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -853,7 +853,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -864,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -875,7 +875,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -886,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -897,7 +897,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -908,7 +908,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -919,7 +919,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -930,7 +930,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -941,7 +941,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -953,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -965,170 +965,170 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1166,16 +1166,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1183,13 +1183,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1197,13 +1197,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1211,13 +1211,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1225,13 +1225,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1239,13 +1239,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1253,13 +1253,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1267,13 +1267,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1281,13 +1281,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1295,13 +1295,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1309,13 +1309,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1323,13 +1323,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
